--- a/mcmaster_excel/Metric_Stainless_Steel_Tamper-Resistant_Button_Head_Torx_Screws.xlsx
+++ b/mcmaster_excel/Metric_Stainless_Steel_Tamper-Resistant_Button_Head_Torx_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,136 +434,108 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg., mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M3 × 0.5 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg., mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>T8</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ASTM F879M, ISO 7380</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>91900A846</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>$11.92</t>
-        </is>
-      </c>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
@@ -574,7 +546,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -614,12 +586,12 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>91900A847</t>
+          <t>91900A846</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>$11.92</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -632,7 +604,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -672,12 +644,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>91900A848</t>
+          <t>91900A847</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>12.54</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -690,7 +662,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -730,12 +702,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>91900A849</t>
+          <t>91900A848</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>13.13</t>
+          <t>12.54</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -748,7 +720,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -788,12 +760,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>91900A301</t>
+          <t>91900A849</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>13.55</t>
+          <t>13.13</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
@@ -806,18 +778,54 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>M4 × 0.7 mm</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ASTM F879M, ISO 7380</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>91900A301</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>13.55</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
@@ -828,54 +836,18 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>T15</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>ASTM F879M, ISO 7380</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>91900A851</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>8.39</t>
-        </is>
-      </c>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
@@ -886,7 +858,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -926,12 +898,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>91900A852</t>
+          <t>91900A851</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>8.39</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -944,7 +916,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -984,12 +956,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>91900A853</t>
+          <t>91900A852</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>9.50</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -1002,7 +974,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1042,12 +1014,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>91900A302</t>
+          <t>91900A853</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10.02</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -1060,52 +1032,52 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>T15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ASTM F879M, ISO 7380</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>T15</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>ASTM F879M, ISO 7380</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>91900A303</t>
+          <t>91900A302</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>10.02</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1118,7 +1090,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1158,12 +1130,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>91900A304</t>
+          <t>91900A303</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>11.22</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -1176,7 +1148,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1216,12 +1188,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>91900A305</t>
+          <t>91900A304</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1234,18 +1206,54 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>M5 × 0.8 mm</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>T15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ASTM F879M, ISO 7380</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>91900A305</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
@@ -1256,54 +1264,18 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>T25</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>ASTM F879M, ISO 7380</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>91900A854</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>9.40</t>
-        </is>
-      </c>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
@@ -1314,7 +1286,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1354,12 +1326,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>91900A855</t>
+          <t>91900A854</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>10.01</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1372,7 +1344,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1412,12 +1384,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>91900A856</t>
+          <t>91900A855</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1430,7 +1402,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1470,12 +1442,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>91900A857</t>
+          <t>91900A856</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>11.63</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
@@ -1488,7 +1460,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1528,12 +1500,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>91900A858</t>
+          <t>91900A857</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>11.63</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
@@ -1546,52 +1518,52 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>T25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ASTM F879M, ISO 7380</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>T25</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>ASTM F879M, ISO 7380</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>91900A306</t>
+          <t>91900A858</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
@@ -1604,7 +1576,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1644,12 +1616,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>91900A307</t>
+          <t>91900A306</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>15.47</t>
+          <t>13.95</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -1662,7 +1634,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1697,17 +1669,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>91900A308</t>
+          <t>91900A307</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>15.47</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1720,7 +1692,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1760,12 +1732,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>91900A309</t>
+          <t>91900A308</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>8.05</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1778,7 +1750,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1818,12 +1790,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>91900A311</t>
+          <t>91900A309</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>9.96</t>
+          <t>8.05</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -1836,18 +1808,54 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>M6 × 1 mm</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>T25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ASTM F879M, ISO 7380</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>91900A311</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
@@ -1858,54 +1866,18 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>T27</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>ASTM F879M, ISO 7380</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>91900A859</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>14.21</t>
-        </is>
-      </c>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
@@ -1916,7 +1888,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1956,12 +1928,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>91900A861</t>
+          <t>91900A859</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>15.93</t>
+          <t>14.21</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -1974,7 +1946,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2009,17 +1981,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>91900A862</t>
+          <t>91900A861</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>15.93</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2032,7 +2004,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2072,12 +2044,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>91900A863</t>
+          <t>91900A862</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>7.49</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2090,7 +2062,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2130,12 +2102,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>91900A864</t>
+          <t>91900A863</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2148,7 +2120,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2188,12 +2160,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>91900A312</t>
+          <t>91900A864</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2206,7 +2178,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2246,12 +2218,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>91900A313</t>
+          <t>91900A312</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>10.08</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2264,7 +2236,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2304,12 +2276,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>91900A314</t>
+          <t>91900A313</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>11.15</t>
+          <t>10.08</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2322,7 +2294,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2362,12 +2334,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>91900A315</t>
+          <t>91900A314</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>13.92</t>
+          <t>11.15</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2380,18 +2352,54 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>M8 × 1.25 mm</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>T27</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ASTM F879M, ISO 7380</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>91900A315</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>13.92</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
@@ -2402,54 +2410,18 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>T40</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>ASTM F879M, ISO 7380</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>91900A865</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>10.30</t>
-        </is>
-      </c>
+          <t>M8 × 1.25 mm</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
@@ -2460,7 +2432,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2500,12 +2472,12 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>91900A866</t>
+          <t>91900A865</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2518,7 +2490,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2558,12 +2530,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>91900A867</t>
+          <t>91900A866</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>12.07</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2576,7 +2548,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2616,12 +2588,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>91900A868</t>
+          <t>91900A867</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>13.67</t>
+          <t>12.07</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2634,7 +2606,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2674,12 +2646,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>91900A869</t>
+          <t>91900A868</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>15.05</t>
+          <t>13.67</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2692,18 +2664,54 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>M10 × 1.5 mm</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>T40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>ASTM F879M, ISO 7380</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>91900A869</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
@@ -2714,54 +2722,18 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>17.50</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>T45</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>80,000</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>ASTM F879M, ISO 7380</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>91900A871</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>8.83</t>
-        </is>
-      </c>
+          <t>M10 × 1.5 mm</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
@@ -2772,7 +2744,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2812,12 +2784,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>91900A872</t>
+          <t>91900A871</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>9.98</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2830,7 +2802,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2870,16 +2842,74 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>91900A873</t>
+          <t>91900A872</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>9.98</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>T45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>ASTM F879M, ISO 7380</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>91900A873</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
